--- a/src/jvmMain/resources/protocol.xlsx
+++ b/src/jvmMain/resources/protocol.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meepo\IdeaProjects\viu35-nevz\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27A0498-C9FB-49D9-8149-B12FCDC886C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B1D0C-FC8B-4342-AE7C-43FB5384D3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
@@ -81,9 +81,6 @@
     <t>г. Новочеркасск</t>
   </si>
   <si>
-    <t>ВИУ-35 АИЕЛ.</t>
-  </si>
-  <si>
     <t>U ВИУ, В</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>#pointsName#</t>
+  </si>
+  <si>
+    <t>ВИУ-35 АИЕЛ.441461.065</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -306,19 +306,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,36 +463,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -593,7 +556,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,19 +566,67 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -628,68 +638,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1140,10 +1093,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ60"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1157,89 +1113,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="61"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:1024" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="63"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="42"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:1024" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42">
+        <v>230712182</v>
+      </c>
+      <c r="I3" s="42"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:1024" ht="27.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:1024" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="62" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="66" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:1024" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -1251,35 +1209,35 @@
     </row>
     <row r="7" spans="1:1024" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:1024" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
       <c r="L8"/>
@@ -1303,11 +1261,11 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="20" t="s">
         <v>9</v>
       </c>
@@ -1320,9 +1278,9 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="20" t="s">
         <v>10</v>
       </c>
@@ -1342,41 +1300,41 @@
       <c r="J12" s="16"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:1024" s="35" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1024" s="34" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:1024" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48" t="s">
+      <c r="B14" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="G14" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="H14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="I14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="34"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:1024" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="23"/>
       <c r="K15" s="24"/>
       <c r="AMC15" s="26"/>
@@ -1390,204 +1348,232 @@
     </row>
     <row r="16" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
-      <c r="B16" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="38" t="s">
+      <c r="B16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="G16" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="I16" s="37" t="s">
         <v>26</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>27</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="17"/>
+    <row r="17" spans="1:1024" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="AMC18" s="26"/>
+      <c r="AMD18" s="26"/>
+      <c r="AME18" s="26"/>
+      <c r="AMF18" s="26"/>
+      <c r="AMG18" s="26"/>
+      <c r="AMH18" s="26"/>
+      <c r="AMI18" s="26"/>
+      <c r="AMJ18" s="26"/>
+    </row>
+    <row r="19" spans="1:1024" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="24"/>
+      <c r="AMC20" s="26"/>
+      <c r="AMD20" s="26"/>
+      <c r="AME20" s="26"/>
+      <c r="AMF20" s="26"/>
+      <c r="AMG20" s="26"/>
+      <c r="AMH20" s="26"/>
+      <c r="AMI20" s="26"/>
+      <c r="AMJ20" s="26"/>
     </row>
     <row r="21" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="27"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="27"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:1024" s="35" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="AMC27" s="26"/>
-      <c r="AMD27" s="26"/>
-      <c r="AME27" s="26"/>
-      <c r="AMF27" s="26"/>
-      <c r="AMG27" s="26"/>
-      <c r="AMH27" s="26"/>
-      <c r="AMI27" s="26"/>
-      <c r="AMJ27" s="26"/>
-    </row>
-    <row r="28" spans="1:1024" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="60"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="61"/>
+      <c r="J24" s="30"/>
+      <c r="AMC24" s="26"/>
+      <c r="AMD24" s="26"/>
+      <c r="AME24" s="26"/>
+      <c r="AMF24" s="26"/>
+      <c r="AMG24" s="26"/>
+      <c r="AMH24" s="26"/>
+      <c r="AMI24" s="26"/>
+      <c r="AMJ24" s="26"/>
+    </row>
+    <row r="25" spans="1:1024" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="24"/>
+      <c r="AMC26" s="26"/>
+      <c r="AMD26" s="26"/>
+      <c r="AME26" s="26"/>
+      <c r="AMF26" s="26"/>
+      <c r="AMG26" s="26"/>
+      <c r="AMH26" s="26"/>
+      <c r="AMI26" s="26"/>
+      <c r="AMJ26" s="26"/>
+    </row>
+    <row r="27" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="30"/>
-    </row>
-    <row r="29" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="24"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="AMC29" s="26"/>
       <c r="AMD29" s="26"/>
       <c r="AME29" s="26"/>
@@ -1597,73 +1583,81 @@
       <c r="AMI29" s="26"/>
       <c r="AMJ29" s="26"/>
     </row>
-    <row r="30" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="AMC30" s="26"/>
+      <c r="AMD30" s="26"/>
+      <c r="AME30" s="26"/>
+      <c r="AMF30" s="26"/>
+      <c r="AMG30" s="26"/>
+      <c r="AMH30" s="26"/>
+      <c r="AMI30" s="26"/>
+      <c r="AMJ30" s="26"/>
+    </row>
+    <row r="31" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="1:1024" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="AMC31" s="26"/>
+      <c r="AMD31" s="26"/>
+      <c r="AME31" s="26"/>
+      <c r="AMF31" s="26"/>
+      <c r="AMG31" s="26"/>
+      <c r="AMH31" s="26"/>
+      <c r="AMI31" s="26"/>
+      <c r="AMJ31" s="26"/>
+    </row>
+    <row r="32" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="24"/>
+      <c r="AMC32" s="26"/>
+      <c r="AMD32" s="26"/>
+      <c r="AME32" s="26"/>
+      <c r="AMF32" s="26"/>
+      <c r="AMG32" s="26"/>
+      <c r="AMH32" s="26"/>
+      <c r="AMI32" s="26"/>
+      <c r="AMJ32" s="26"/>
+    </row>
+    <row r="33" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="30"/>
-      <c r="AMC33" s="26"/>
-      <c r="AMD33" s="26"/>
-      <c r="AME33" s="26"/>
-      <c r="AMF33" s="26"/>
-      <c r="AMG33" s="26"/>
-      <c r="AMH33" s="26"/>
-      <c r="AMI33" s="26"/>
-      <c r="AMJ33" s="26"/>
-    </row>
-    <row r="34" spans="1:1024" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1674,8 +1668,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1686,7 +1681,6 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="24"/>
       <c r="AMC35" s="26"/>
       <c r="AMD35" s="26"/>
       <c r="AME35" s="26"/>
@@ -1696,7 +1690,7 @@
       <c r="AMI35" s="26"/>
       <c r="AMJ35" s="26"/>
     </row>
-    <row r="36" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1707,9 +1701,16 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMC36" s="26"/>
+      <c r="AMD36" s="26"/>
+      <c r="AME36" s="26"/>
+      <c r="AMF36" s="26"/>
+      <c r="AMG36" s="26"/>
+      <c r="AMH36" s="26"/>
+      <c r="AMI36" s="26"/>
+      <c r="AMJ36" s="26"/>
+    </row>
+    <row r="37" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1720,9 +1721,16 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMC37" s="26"/>
+      <c r="AMD37" s="26"/>
+      <c r="AME37" s="26"/>
+      <c r="AMF37" s="26"/>
+      <c r="AMG37" s="26"/>
+      <c r="AMH37" s="26"/>
+      <c r="AMI37" s="26"/>
+      <c r="AMJ37" s="26"/>
+    </row>
+    <row r="38" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1742,7 +1750,7 @@
       <c r="AMI38" s="26"/>
       <c r="AMJ38" s="26"/>
     </row>
-    <row r="39" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1762,7 +1770,7 @@
       <c r="AMI39" s="26"/>
       <c r="AMJ39" s="26"/>
     </row>
-    <row r="40" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1782,7 +1790,7 @@
       <c r="AMI40" s="26"/>
       <c r="AMJ40" s="26"/>
     </row>
-    <row r="41" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1793,7 +1801,6 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="24"/>
       <c r="AMC41" s="26"/>
       <c r="AMD41" s="26"/>
       <c r="AME41" s="26"/>
@@ -1803,7 +1810,7 @@
       <c r="AMI41" s="26"/>
       <c r="AMJ41" s="26"/>
     </row>
-    <row r="42" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1814,9 +1821,16 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="17"/>
-    </row>
-    <row r="43" spans="1:1024" s="21" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMC42" s="26"/>
+      <c r="AMD42" s="26"/>
+      <c r="AME42" s="26"/>
+      <c r="AMF42" s="26"/>
+      <c r="AMG42" s="26"/>
+      <c r="AMH42" s="26"/>
+      <c r="AMI42" s="26"/>
+      <c r="AMJ42" s="26"/>
+    </row>
+    <row r="43" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1827,7 +1841,14 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="17"/>
+      <c r="AMC43" s="26"/>
+      <c r="AMD43" s="26"/>
+      <c r="AME43" s="26"/>
+      <c r="AMF43" s="26"/>
+      <c r="AMG43" s="26"/>
+      <c r="AMH43" s="26"/>
+      <c r="AMI43" s="26"/>
+      <c r="AMJ43" s="26"/>
     </row>
     <row r="44" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -1869,7 +1890,7 @@
       <c r="AMI45" s="26"/>
       <c r="AMJ45" s="26"/>
     </row>
-    <row r="46" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1880,16 +1901,9 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="AMC46" s="26"/>
-      <c r="AMD46" s="26"/>
-      <c r="AME46" s="26"/>
-      <c r="AMF46" s="26"/>
-      <c r="AMG46" s="26"/>
-      <c r="AMH46" s="26"/>
-      <c r="AMI46" s="26"/>
-      <c r="AMJ46" s="26"/>
-    </row>
-    <row r="47" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="1:1024" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1900,16 +1914,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="AMC47" s="26"/>
-      <c r="AMD47" s="26"/>
-      <c r="AME47" s="26"/>
-      <c r="AMF47" s="26"/>
-      <c r="AMG47" s="26"/>
-      <c r="AMH47" s="26"/>
-      <c r="AMI47" s="26"/>
-      <c r="AMJ47" s="26"/>
-    </row>
-    <row r="48" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="1:1024" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1920,16 +1927,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="AMC48" s="26"/>
-      <c r="AMD48" s="26"/>
-      <c r="AME48" s="26"/>
-      <c r="AMF48" s="26"/>
-      <c r="AMG48" s="26"/>
-      <c r="AMH48" s="26"/>
-      <c r="AMI48" s="26"/>
-      <c r="AMJ48" s="26"/>
-    </row>
-    <row r="49" spans="1:1024" s="25" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="1:11" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1940,16 +1940,9 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="AMC49" s="26"/>
-      <c r="AMD49" s="26"/>
-      <c r="AME49" s="26"/>
-      <c r="AMF49" s="26"/>
-      <c r="AMG49" s="26"/>
-      <c r="AMH49" s="26"/>
-      <c r="AMI49" s="26"/>
-      <c r="AMJ49" s="26"/>
-    </row>
-    <row r="50" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="17"/>
+    </row>
+    <row r="50" spans="1:11" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1960,16 +1953,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="AMC50" s="26"/>
-      <c r="AMD50" s="26"/>
-      <c r="AME50" s="26"/>
-      <c r="AMF50" s="26"/>
-      <c r="AMG50" s="26"/>
-      <c r="AMH50" s="26"/>
-      <c r="AMI50" s="26"/>
-      <c r="AMJ50" s="26"/>
-    </row>
-    <row r="51" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" spans="1:11" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1980,155 +1966,31 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="AMC51" s="26"/>
-      <c r="AMD51" s="26"/>
-      <c r="AME51" s="26"/>
-      <c r="AMF51" s="26"/>
-      <c r="AMG51" s="26"/>
-      <c r="AMH51" s="26"/>
-      <c r="AMI51" s="26"/>
-      <c r="AMJ51" s="26"/>
-    </row>
-    <row r="52" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="AMC52" s="26"/>
-      <c r="AMD52" s="26"/>
-      <c r="AME52" s="26"/>
-      <c r="AMF52" s="26"/>
-      <c r="AMG52" s="26"/>
-      <c r="AMH52" s="26"/>
-      <c r="AMI52" s="26"/>
-      <c r="AMJ52" s="26"/>
-    </row>
-    <row r="53" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="AMC53" s="26"/>
-      <c r="AMD53" s="26"/>
-      <c r="AME53" s="26"/>
-      <c r="AMF53" s="26"/>
-      <c r="AMG53" s="26"/>
-      <c r="AMH53" s="26"/>
-      <c r="AMI53" s="26"/>
-      <c r="AMJ53" s="26"/>
-    </row>
-    <row r="54" spans="1:1024" s="25" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="AMC54" s="26"/>
-      <c r="AMD54" s="26"/>
-      <c r="AME54" s="26"/>
-      <c r="AMF54" s="26"/>
-      <c r="AMG54" s="26"/>
-      <c r="AMH54" s="26"/>
-      <c r="AMI54" s="26"/>
-      <c r="AMJ54" s="26"/>
-    </row>
-    <row r="55" spans="1:1024" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="17"/>
-    </row>
-    <row r="56" spans="1:1024" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="17"/>
-    </row>
-    <row r="57" spans="1:1024" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="17"/>
-    </row>
-    <row r="58" spans="1:1024" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" spans="1:1024" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="1:1024" s="18" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="17"/>
+      <c r="K51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="33">
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A1:C6"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -2141,39 +2003,9 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.59027777777777801" top="0.59027777777777801" bottom="0.59027777777777801" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>